--- a/activity/New Releases Hot 40 International/Everything About You feat. your friend polly.xlsx
+++ b/activity/New Releases Hot 40 International/Everything About You feat. your friend polly.xlsx
@@ -396,7 +396,7 @@
         <v>Everything About You feat. your friend polly</v>
       </c>
       <c r="B2" t="str">
-        <v>Sam Feldt</v>
+        <v>Sam Feldt, your friend polly</v>
       </c>
       <c r="C2" t="str">
         <v>02:58</v>
